--- a/biology/Biologie cellulaire et moléculaire/Jenny_Graves/Jenny_Graves.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Jenny_Graves/Jenny_Graves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jennifer Ann Marshall Tombes, née le 24 novembre 1941, est une généticienne australienne. Elle est professeure  émérite à l'institut des sciences moléculaires de l'université de La Trobe et professeure émérite de l'université nationale australienne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jennifer Ann Marshall Tombes, née le 24 novembre 1941, est une généticienne australienne. Elle est professeure  émérite à l'institut des sciences moléculaires de l'université de La Trobe et professeure émérite de l'université nationale australienne.
 </t>
         </is>
       </c>
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et éducation
-Graves est née à Adélaïde, en Australie-Méridionale en 1941. Elle est  allée à l'école primaire de Highgate puis au collège presbytérien pour fille (aujourd'hui appelé Seymour College) à Adélaïde[2].
+          <t>Enfance et éducation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graves est née à Adélaïde, en Australie-Méridionale en 1941. Elle est  allée à l'école primaire de Highgate puis au collège presbytérien pour fille (aujourd'hui appelé Seymour College) à Adélaïde.
 Elle a obtenu son baccalauréat ès sciences à l'Université d'Adélaïde en 1964, et sa maîtrise en 1967. Elle obtient une bourse Fulbright pour aller étudier aux États-Unis. En 1971, elle soutient une thèse de doctorat à l'université de Californie à Berkeley sur la réplication de l'ADN sous la direction de Daniel Mazia (en).
-Carrière
-En 1971, Graves  revient en Australie et devient lectrice en génétique à l'Université de La Trobe. Elle effectue ses recherches sur l'Inactivation du chromosome X chez les marsupiaux. Elle s'implique également dans des recherches sur la cartographie génétique et sur l'évolution, et l'organisation des chromosomes liés à la détermination du sexe[3]. En 1991, elle devient professeure à temps complet en génétique à l'Université de La Trobe[2],[4],[5].
 </t>
         </is>
       </c>
@@ -543,18 +558,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1971, Graves  revient en Australie et devient lectrice en génétique à l'Université de La Trobe. Elle effectue ses recherches sur l'Inactivation du chromosome X chez les marsupiaux. Elle s'implique également dans des recherches sur la cartographie génétique et sur l'évolution, et l'organisation des chromosomes liés à la détermination du sexe. En 1991, elle devient professeure à temps complet en génétique à l'Université de La Trobe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jenny_Graves</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jenny_Graves</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1999 : membre de l'académie australienne des sciences[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1999 : membre de l'académie australienne des sciences.
 2001 : médaille du centenaire.
 2006 :
-Médaille et lecture Macfarlane Burnet par l'académie australienne des sciences[7].
+Médaille et lecture Macfarlane Burnet par l'académie australienne des sciences.
 Prix L'Oréal-UNESCO pour les femmes et la science.
 2010 : officière de l'Ordre d'Australie.
-2017 : Prix du premier ministre australien pour la science, pour ses recherches de pointe sur le sexe génétique[8],[9],[5],[10].</t>
+2017 : Prix du premier ministre australien pour la science, pour ses recherches de pointe sur le sexe génétique.</t>
         </is>
       </c>
     </row>
